--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
   <si>
     <t>Step No</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
   <si>
     <t>LLS_OP_PRESCRIPTION_NO</t>
@@ -1058,9 +1061,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -1099,22 +1102,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1129,17 +1116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,15 +1140,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,7 +1172,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,44 +1201,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,7 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1297,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,13 +1333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,7 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,13 +1375,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,25 +1417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,49 +1441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,19 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,6 +1517,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1529,11 +1556,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1564,30 +1606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1596,31 +1614,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1632,130 +1635,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2211,8 +2214,8 @@
   <sheetPr/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3748,7 +3751,7 @@
         <v>160</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -3765,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -3783,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -3801,14 +3804,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H75" s="16"/>
     </row>
@@ -3823,7 +3826,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -3841,7 +3844,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -3859,14 +3862,14 @@
         <v>20</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -4003,7 +4006,7 @@
         <v>20</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -4063,16 +4066,16 @@
         <v>20</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H88" s="8"/>
     </row>
@@ -4103,10 +4106,10 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H90" s="8"/>
     </row>
@@ -4121,14 +4124,14 @@
         <v>20</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H91" s="16"/>
     </row>
@@ -4143,14 +4146,14 @@
         <v>20</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H92" s="8"/>
     </row>
@@ -4165,7 +4168,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -4183,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -4201,16 +4204,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H95" s="16"/>
     </row>
@@ -4241,10 +4244,10 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H97" s="16"/>
     </row>
@@ -4259,16 +4262,16 @@
         <v>15</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H98" s="8"/>
     </row>
@@ -4283,16 +4286,16 @@
         <v>15</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H99" s="16"/>
     </row>
@@ -4349,14 +4352,14 @@
         <v>20</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H102" s="8"/>
     </row>
@@ -4373,10 +4376,10 @@
         <v>2</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H103" s="16"/>
     </row>
@@ -4385,20 +4388,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H104" s="8"/>
     </row>
@@ -4429,16 +4432,16 @@
         <v>15</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H106" s="8"/>
     </row>
@@ -4453,16 +4456,16 @@
         <v>20</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H107" s="16"/>
     </row>
@@ -4471,22 +4474,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H108" s="8"/>
     </row>
@@ -4501,14 +4504,14 @@
         <v>15</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H109" s="16"/>
     </row>
@@ -4539,14 +4542,14 @@
         <v>20</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H111" s="16"/>
     </row>
@@ -4639,14 +4642,14 @@
         <v>20</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H116" s="17"/>
     </row>
@@ -4661,14 +4664,14 @@
         <v>15</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H117" s="20"/>
     </row>
@@ -4699,14 +4702,14 @@
         <v>20</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H119" s="20"/>
     </row>
@@ -4721,16 +4724,16 @@
         <v>15</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H120" s="17"/>
     </row>
@@ -4745,16 +4748,16 @@
         <v>20</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H121" s="20"/>
     </row>
@@ -4763,22 +4766,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H122" s="17"/>
     </row>
@@ -4797,10 +4800,10 @@
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H123" s="20"/>
     </row>
@@ -4829,7 +4832,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -4869,14 +4872,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H127" s="20"/>
     </row>
@@ -4907,14 +4910,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H129" s="11"/>
     </row>
@@ -4985,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4993,20 +4996,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5017,20 +5020,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5038,47 +5041,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5088,12 +5091,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5103,55 +5106,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5161,152 +5164,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5316,209 +5319,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5528,7 +5531,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="3:3">
@@ -5543,7 +5546,7 @@
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,10 +1061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1102,8 +1102,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,21 +1119,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,14 +1139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1162,48 +1147,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,21 +1176,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1273,31 +1273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,7 +1303,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +1399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,73 +1435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,43 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,6 +1517,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1556,6 +1580,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1570,54 +1614,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,130 +1635,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2212,10 +2212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2349,7 +2349,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2444,2520 +2444,2504 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10">
-        <v>10</v>
+      <c r="A11" s="7">
+        <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="10">
+      <c r="C16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
+      <c r="D17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="9"/>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="11"/>
+      <c r="A19" s="10">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="9">
+        <v>10001</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="9">
-        <v>10001</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="9"/>
+      <c r="D24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="9"/>
+      <c r="C26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="10">
+        <v>27</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="11"/>
+      <c r="C27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="7">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="9"/>
+      <c r="C28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="10">
+        <v>29</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="11"/>
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10">
+        <v>32</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
+        <v>5</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10">
+        <v>34</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
-        <v>5</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="9"/>
+      <c r="C34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7">
+        <v>36</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="10">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
+        <v>38</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="D38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10">
+        <v>39</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="10">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="16"/>
+      <c r="D39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7">
+        <v>41</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="10">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="D41" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="9">
+        <v>9876543210</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10">
+        <v>42</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7">
+        <v>43</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="9">
-        <v>9876543210</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="10">
-        <v>42</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="16"/>
+      <c r="D43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="8"/>
+      <c r="A44" s="10">
+        <v>44</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11">
+        <v>5</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="10">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="7">
+        <v>46</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10">
+        <v>47</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11">
-        <v>4</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="10">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9">
+        <v>5</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="7">
+        <v>48</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="D48" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10">
+        <v>49</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11">
+        <v>5</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="10">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <v>51</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11">
-        <v>4</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="10">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11">
+        <v>5</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="10">
+        <v>52</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="7">
+        <v>53</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11">
-        <v>4</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="10">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="D53" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="10">
         <v>54</v>
       </c>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="8"/>
+      <c r="D54" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="10">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="7">
+        <v>56</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="10">
-        <v>55</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="D56" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="10">
+        <v>57</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="7">
+        <v>58</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="10">
-        <v>57</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="8"/>
+      <c r="D58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="16"/>
+      <c r="A59" s="10">
+        <v>59</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9">
+        <v>5</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="7">
+        <v>61</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9">
-        <v>4</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="10">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>5</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="10">
+        <v>62</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="D62" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="7">
+        <v>63</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
-        <v>4</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="10">
-        <v>62</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="9"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
+        <v>5</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="7">
-        <v>63</v>
+      <c r="A64" s="10">
+        <v>64</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="10">
-        <v>64</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="9">
+        <v>5</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="10">
-        <v>65</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="9">
-        <v>4</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="8"/>
+      <c r="A66" s="7">
+        <v>66</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
-        <v>66</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="A67" s="10">
+        <v>67</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H67" s="16"/>
+      <c r="G67" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="10">
-        <v>67</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="7">
+        <v>68</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H68" s="8"/>
+      <c r="C68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" s="16"/>
+      <c r="A69" s="10">
+        <v>69</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="10">
-        <v>69</v>
-      </c>
-      <c r="B70" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="8"/>
+      <c r="D70" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="10">
-        <v>70</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H71" s="16"/>
+      <c r="A71" s="7">
+        <v>71</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="7">
-        <v>71</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
+      <c r="A72" s="10">
+        <v>72</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="10">
-        <v>72</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="7">
+        <v>73</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="16"/>
+      <c r="C73" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="10">
+        <v>74</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="8"/>
+      <c r="C74" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="10">
-        <v>74</v>
-      </c>
-      <c r="B75" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H75" s="16"/>
+      <c r="C75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="10">
-        <v>75</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="7">
+        <v>76</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="8"/>
+      <c r="C76" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
-        <v>76</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="10">
+        <v>77</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="16"/>
+      <c r="C77" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="10">
-        <v>77</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="7">
+        <v>78</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" s="8"/>
+      <c r="C78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
-        <v>78</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="16"/>
+      <c r="A79" s="10">
+        <v>79</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9">
+        <v>5</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7">
+        <v>81</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9">
-        <v>4</v>
-      </c>
-      <c r="F80" s="9" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11">
+        <v>5</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="10">
+        <v>82</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7">
+        <v>83</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11">
+        <v>5</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="10">
-        <v>80</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="10">
+        <v>84</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>4</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="10">
-        <v>82</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11">
-        <v>4</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="11"/>
+      <c r="C84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="10">
-        <v>84</v>
-      </c>
-      <c r="B85" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="16"/>
+      <c r="C85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="10">
-        <v>85</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="A86" s="7">
+        <v>86</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>5</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="10">
+        <v>87</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7">
         <v>88</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
+      <c r="B88" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11">
+        <v>5</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="10">
         <v>89</v>
       </c>
-      <c r="G86" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11">
-        <v>4</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="16"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="10">
-        <v>87</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H88" s="8"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="7">
-        <v>88</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11">
-        <v>5</v>
-      </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="16"/>
+      <c r="B89" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
-        <v>89</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H90" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="10">
-        <v>90</v>
-      </c>
-      <c r="B91" s="11" t="s">
+      <c r="A91" s="7">
+        <v>91</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
+      <c r="C91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H91" s="16"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="A92" s="10">
+        <v>92</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H92" s="8"/>
+      <c r="C92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="10">
-        <v>92</v>
-      </c>
-      <c r="B93" s="11" t="s">
+      <c r="A93" s="7">
+        <v>93</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="16"/>
+      <c r="C93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="7">
-        <v>93</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="8"/>
+      <c r="A94" s="10">
+        <v>94</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="10">
-        <v>94</v>
-      </c>
-      <c r="B95" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9">
+        <v>5</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="7">
+        <v>96</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="10">
+        <v>97</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H95" s="16"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="10">
-        <v>95</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9">
-        <v>3</v>
-      </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="7">
-        <v>96</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H97" s="16"/>
+      <c r="C97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="10">
-        <v>97</v>
-      </c>
-      <c r="B98" s="9" t="s">
+      <c r="A98" s="7">
+        <v>98</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H98" s="8"/>
+      <c r="D98" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="7">
-        <v>98</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="11" t="s">
+      <c r="A99" s="10">
+        <v>99</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H99" s="16"/>
+      <c r="D99" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10">
-        <v>99</v>
-      </c>
-      <c r="B100" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11">
+        <v>5</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="7">
+        <v>101</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="10">
-        <v>100</v>
-      </c>
-      <c r="B101" s="11" t="s">
+      <c r="C101" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="10">
+        <v>102</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>4</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="16"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="7">
-        <v>101</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H102" s="8"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11">
+        <v>2</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="10">
-        <v>102</v>
-      </c>
-      <c r="B103" s="11" t="s">
+      <c r="A103" s="7">
+        <v>103</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="10">
+        <v>104</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11">
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11">
         <v>2</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H103" s="16"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="7">
-        <v>103</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H104" s="8"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10">
-        <v>104</v>
-      </c>
-      <c r="B105" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="7">
+        <v>106</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="10">
+        <v>107</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="7">
+        <v>108</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="10">
+        <v>109</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11">
-        <v>2</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="16"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="10">
-        <v>105</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="7">
-        <v>106</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H107" s="16"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="10">
-        <v>107</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="7">
-        <v>108</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H109" s="16"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="9">
+        <v>5</v>
+      </c>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10">
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="7">
+        <v>111</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="9">
-        <v>4</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="10">
-        <v>110</v>
-      </c>
-      <c r="B111" s="11" t="s">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
+        <v>5</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="10">
+        <v>112</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="7">
+        <v>113</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H111" s="16"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="7">
-        <v>111</v>
-      </c>
-      <c r="B112" s="9" t="s">
+      <c r="C113" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="10">
+        <v>114</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9">
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9">
         <v>5</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="10">
-        <v>112</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="7">
-        <v>113</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="18"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10">
-        <v>114</v>
-      </c>
-      <c r="B115" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7">
+        <v>116</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="10">
+        <v>117</v>
+      </c>
+      <c r="B117" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9">
-        <v>5</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="18"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="10">
-        <v>115</v>
-      </c>
-      <c r="B116" s="17" t="s">
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17">
+        <v>20</v>
+      </c>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="7">
+        <v>118</v>
+      </c>
+      <c r="B118" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G116" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H116" s="17"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="7">
-        <v>116</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="20" t="s">
+      <c r="C118" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="10">
+        <v>119</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G117" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H117" s="20"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="10">
-        <v>117</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17">
-        <v>20</v>
-      </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="7">
-        <v>118</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H119" s="20"/>
+      <c r="D119" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
-        <v>119</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F120" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="H120" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G120" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H120" s="20"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="10">
-        <v>120</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="F121" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G121" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="H121" s="20"/>
+      <c r="A121" s="7">
+        <v>121</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="7">
-        <v>121</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H122" s="17"/>
+      <c r="A122" s="10">
+        <v>122</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="10">
-        <v>122</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G123" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H123" s="20"/>
+      <c r="A123" s="7">
+        <v>123</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17">
+        <v>20</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="7">
-        <v>123</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17">
-        <v>20</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="17"/>
+      <c r="A124" s="10">
+        <v>124</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="10">
-        <v>124</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17">
+        <v>10</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="10">
-        <v>125</v>
-      </c>
-      <c r="B126" s="17" t="s">
+      <c r="A126" s="7">
+        <v>126</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="10">
+        <v>127</v>
+      </c>
+      <c r="B127" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17">
-        <v>10</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="7">
-        <v>126</v>
-      </c>
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17">
+        <v>5</v>
+      </c>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="7">
+        <v>128</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="H127" s="20"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="10">
-        <v>127</v>
-      </c>
-      <c r="B128" s="17" t="s">
+      <c r="C128" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="10">
+        <v>129</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17">
-        <v>5</v>
-      </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="7">
-        <v>128</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H129" s="11"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="10">
-        <v>129</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
         <v>4</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B57 B58 B59 B60 B68 B71 B72 B73 B74 B75 B78 B95 B96 B105 B106 B107 B108 B109 B110 B111 B112 B14:B20 B21:B29 B31:B39 B40:B45 B53:B56 B65:B67 B69:B70 B76:B77 B79:B80 B85:B92 B93:B94 B97:B101 B102:B103 B129:B130 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C14 B29 B45 B46 B47 B56 B57 B58 B59 B67 B70 B71 B72 B73 B74 B77 B94 B95 B104 B105 B106 B107 B108 B109 B110 B111 B13:B19 B20:B28 B30:B38 B39:B44 B52:B55 B64:B66 B68:B69 B75:B76 B78:B79 B84:B91 B92:B93 B96:B100 B101:B102 B128:B129 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C113 B114 C114 B115 C115 B4:B12 C7:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 B11 C11 B12 C12 C112 B113 C113 B114 C114 B4:B10 C7:C9">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C15:C19 C20:C24">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C47 C51 C59 C63 C83 C86 C26:C29 C31:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29 C43 C46 C50 C58 C62 C82 C85 C25:C28 C30:C32">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49 B50 B61 B62 B81 B82 B113 B51:B52 B63:B64 B83:B84 B116:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48 B49 B60 B61 B80 B81 B112 B50:B51 B62:B63 B82:B83 B115:B127">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -111,7 +111,7 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Fname</t>
+    <t>Fname</t>
   </si>
   <si>
     <t>Enter First name</t>
@@ -123,7 +123,7 @@
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Lname</t>
+    <t>Lname</t>
   </si>
   <si>
     <t>Enter last name</t>
@@ -1061,10 +1061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1102,23 +1102,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,7 +1132,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,30 +1154,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,17 +1203,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1208,17 +1217,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,18 +1238,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1273,61 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,49 +1297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,37 +1321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,13 +1339,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,39 +1518,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1561,6 +1528,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,8 +1570,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,16 +1605,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,130 +1635,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2214,8 +2214,8 @@
   <sheetPr/>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2349,7 +2349,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2513,7 +2513,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -2707,7 +2707,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>39</v>
@@ -2929,7 +2929,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>12</v>
@@ -3171,7 +3171,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>12</v>
@@ -3233,7 +3233,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3309,7 +3309,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>12</v>
@@ -3485,7 +3485,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -3561,7 +3561,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>12</v>
@@ -3889,7 +3889,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>12</v>
@@ -3969,7 +3969,7 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>12</v>
@@ -4509,7 +4509,7 @@
       <c r="C109" s="9"/>
       <c r="D109" s="12"/>
       <c r="E109" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -1061,10 +1061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1110,7 +1110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,16 +1123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,8 +1140,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,9 +1187,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,9 +1210,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1193,39 +1231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,14 +1243,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1273,7 +1273,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,13 +1375,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,19 +1429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,127 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,6 +1517,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1532,25 +1580,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1575,55 +1614,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,115 +1635,91 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1752,13 +1728,37 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2214,8 +2214,8 @@
   <sheetPr/>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2296,7 +2296,7 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2340,7 +2340,7 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2380,7 +2380,7 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2426,7 +2426,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2444,8 +2444,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
-        <v>11</v>
+      <c r="A11" s="10">
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>19</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -2486,8 +2486,8 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
-        <v>13</v>
+      <c r="A13" s="10">
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>19</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>11</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>41</v>
@@ -2544,8 +2544,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7">
-        <v>16</v>
+      <c r="A16" s="10">
+        <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>11</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>46</v>
@@ -2584,8 +2584,8 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7">
-        <v>18</v>
+      <c r="A18" s="10">
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>19</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>19</v>
@@ -2652,8 +2652,8 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
-        <v>21</v>
+      <c r="A21" s="10">
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>46</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>19</v>
@@ -2698,8 +2698,8 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
-        <v>23</v>
+      <c r="A23" s="10">
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>11</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>63</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>41</v>
@@ -2762,8 +2762,8 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
-        <v>26</v>
+      <c r="A26" s="10">
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>41</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>41</v>
@@ -2810,8 +2810,8 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7">
-        <v>28</v>
+      <c r="A28" s="10">
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>41</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>41</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>19</v>
@@ -2876,8 +2876,8 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
-        <v>31</v>
+      <c r="A31" s="10">
+        <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>19</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>19</v>
@@ -2920,8 +2920,8 @@
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
-        <v>33</v>
+      <c r="A33" s="10">
+        <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>11</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>41</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>63</v>
@@ -2986,8 +2986,8 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7">
-        <v>36</v>
+      <c r="A36" s="10">
+        <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>63</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>41</v>
@@ -3032,8 +3032,8 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
-        <v>38</v>
+      <c r="A38" s="10">
+        <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>46</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>46</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>41</v>
@@ -3100,8 +3100,8 @@
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
-        <v>41</v>
+      <c r="A41" s="10">
+        <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>46</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>41</v>
@@ -3140,8 +3140,8 @@
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
-        <v>43</v>
+      <c r="A43" s="10">
+        <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>19</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>11</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>41</v>
@@ -3202,8 +3202,8 @@
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7">
-        <v>46</v>
+      <c r="A46" s="10">
+        <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>19</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>11</v>
@@ -3240,8 +3240,8 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7">
-        <v>48</v>
+      <c r="A48" s="10">
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>19</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>11</v>
@@ -3271,7 +3271,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="10"/>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>19</v>
@@ -3300,8 +3300,8 @@
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
-        <v>51</v>
+      <c r="A51" s="10">
+        <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>11</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>19</v>
@@ -3340,8 +3340,8 @@
       <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
-        <v>53</v>
+      <c r="A53" s="10">
+        <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>63</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>63</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>41</v>
@@ -3412,8 +3412,8 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
-        <v>56</v>
+      <c r="A56" s="10">
+        <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>134</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>41</v>
@@ -3454,8 +3454,8 @@
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="7">
-        <v>58</v>
+      <c r="A58" s="10">
+        <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>19</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="10">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>11</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>19</v>
@@ -3514,8 +3514,8 @@
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7">
-        <v>61</v>
+      <c r="A61" s="10">
+        <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>11</v>
@@ -3523,7 +3523,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>19</v>
@@ -3552,8 +3552,8 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7">
-        <v>63</v>
+      <c r="A63" s="10">
+        <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>11</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>46</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>11</v>
@@ -3612,8 +3612,8 @@
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7">
-        <v>66</v>
+      <c r="A66" s="10">
+        <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>144</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="10">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>41</v>
@@ -3654,8 +3654,8 @@
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="7">
-        <v>68</v>
+      <c r="A68" s="10">
+        <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>41</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>63</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>63</v>
@@ -3722,8 +3722,8 @@
       <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7">
-        <v>71</v>
+      <c r="A71" s="10">
+        <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>41</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>19</v>
@@ -3760,8 +3760,8 @@
       <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
-        <v>73</v>
+      <c r="A73" s="10">
+        <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>19</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>19</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>19</v>
@@ -3818,8 +3818,8 @@
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="7">
-        <v>76</v>
+      <c r="A76" s="10">
+        <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>19</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>19</v>
@@ -3858,8 +3858,8 @@
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7">
-        <v>78</v>
+      <c r="A78" s="10">
+        <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>19</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>11</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>19</v>
@@ -3922,8 +3922,8 @@
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
-        <v>81</v>
+      <c r="A81" s="10">
+        <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>11</v>
@@ -3931,7 +3931,7 @@
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>19</v>
@@ -3960,8 +3960,8 @@
       <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
-        <v>83</v>
+      <c r="A83" s="10">
+        <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>11</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="10">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>19</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="10">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>19</v>
@@ -4020,8 +4020,8 @@
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="7">
-        <v>86</v>
+      <c r="A86" s="10">
+        <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>11</v>
@@ -4029,7 +4029,7 @@
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>12</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="10">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>46</v>
@@ -4064,8 +4064,8 @@
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7">
-        <v>88</v>
+      <c r="A88" s="10">
+        <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>11</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>144</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>19</v>
@@ -4120,8 +4120,8 @@
       <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="7">
-        <v>91</v>
+      <c r="A91" s="10">
+        <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>19</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>19</v>
@@ -4160,8 +4160,8 @@
       <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="7">
-        <v>93</v>
+      <c r="A93" s="10">
+        <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>19</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>46</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="10">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>11</v>
@@ -4218,8 +4218,8 @@
       <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="7">
-        <v>96</v>
+      <c r="A96" s="10">
+        <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>144</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>46</v>
@@ -4260,8 +4260,8 @@
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="7">
-        <v>98</v>
+      <c r="A98" s="10">
+        <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>46</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>19</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>11</v>
@@ -4315,7 +4315,7 @@
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>12</v>
@@ -4326,8 +4326,8 @@
       <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="7">
-        <v>101</v>
+      <c r="A101" s="10">
+        <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>19</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>11</v>
@@ -4368,8 +4368,8 @@
       <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="7">
-        <v>103</v>
+      <c r="A103" s="10">
+        <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>202</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>11</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>63</v>
@@ -4430,8 +4430,8 @@
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="7">
-        <v>106</v>
+      <c r="A106" s="10">
+        <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>41</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>214</v>
@@ -4478,8 +4478,8 @@
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="7">
-        <v>108</v>
+      <c r="A108" s="10">
+        <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>19</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>11</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>19</v>
@@ -4538,8 +4538,8 @@
       <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="7">
-        <v>111</v>
+      <c r="A111" s="10">
+        <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>11</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="10">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>46</v>
@@ -4578,8 +4578,8 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>113</v>
+      <c r="A113" s="10">
+        <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>19</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>11</v>
@@ -4609,7 +4609,7 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>19</v>
@@ -4638,8 +4638,8 @@
       <c r="H115" s="17"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="7">
-        <v>116</v>
+      <c r="A116" s="10">
+        <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>19</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>11</v>
@@ -4676,8 +4676,8 @@
       <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="7">
-        <v>118</v>
+      <c r="A118" s="10">
+        <v>117</v>
       </c>
       <c r="B118" s="20" t="s">
         <v>19</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="10">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>63</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>41</v>
@@ -4746,8 +4746,8 @@
       <c r="H120" s="20"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="7">
-        <v>121</v>
+      <c r="A121" s="10">
+        <v>120</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>214</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>19</v>
@@ -4792,8 +4792,8 @@
       <c r="H122" s="20"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="7">
-        <v>123</v>
+      <c r="A123" s="10">
+        <v>122</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>11</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>234</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="10">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>11</v>
@@ -4846,8 +4846,8 @@
       <c r="H125" s="17"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="7">
-        <v>126</v>
+      <c r="A126" s="10">
+        <v>125</v>
       </c>
       <c r="B126" s="20" t="s">
         <v>19</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>11</v>
@@ -4884,8 +4884,8 @@
       <c r="H127" s="17"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>128</v>
+      <c r="A128" s="10">
+        <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>19</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="10">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>11</v>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
   <si>
     <t>Step No</t>
   </si>
@@ -474,21 +474,18 @@
     <t>Insurance selected</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -841,9 +838,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1062,9 +1056,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1102,6 +1096,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1109,10 +1111,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,30 +1142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1164,16 +1151,60 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,21 +1219,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,36 +1235,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,7 +1267,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,7 +1297,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,79 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,67 +1441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,15 +1520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1550,17 +1535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,6 +1562,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1594,30 +1608,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,130 +1629,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2214,8 +2208,8 @@
   <sheetPr/>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3633,17 +3627,17 @@
       <c r="A67" s="10">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>41</v>
+      <c r="B67" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="9" t="s">
         <v>148</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>145</v>
@@ -3658,7 +3652,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>20</v>
@@ -3666,14 +3660,14 @@
       <c r="D68" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="11">
+        <v>1</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="H68" s="16"/>
     </row>
@@ -3688,14 +3682,14 @@
         <v>15</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -3710,14 +3704,14 @@
         <v>15</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="H70" s="16"/>
     </row>
@@ -3732,10 +3726,10 @@
         <v>20</v>
       </c>
       <c r="D71" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -3752,7 +3746,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -3770,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -3788,14 +3782,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="H74" s="16"/>
     </row>
@@ -3810,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -3828,7 +3822,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -3846,14 +3840,14 @@
         <v>20</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -3990,7 +3984,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -4050,16 +4044,16 @@
         <v>20</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F87" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="H87" s="8"/>
     </row>
@@ -4090,10 +4084,10 @@
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G89" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="H89" s="8"/>
     </row>
@@ -4108,14 +4102,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="H90" s="16"/>
     </row>
@@ -4130,14 +4124,14 @@
         <v>20</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G91" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="H91" s="8"/>
     </row>
@@ -4152,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -4170,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -4188,16 +4182,16 @@
         <v>20</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F94" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="H94" s="16"/>
     </row>
@@ -4228,10 +4222,10 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G96" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="H96" s="16"/>
     </row>
@@ -4246,16 +4240,16 @@
         <v>15</v>
       </c>
       <c r="D97" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="F97" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="H97" s="8"/>
     </row>
@@ -4270,16 +4264,16 @@
         <v>15</v>
       </c>
       <c r="D98" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="G98" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="H98" s="16"/>
     </row>
@@ -4336,14 +4330,14 @@
         <v>20</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="H101" s="8"/>
     </row>
@@ -4360,10 +4354,10 @@
         <v>2</v>
       </c>
       <c r="F102" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="H102" s="16"/>
     </row>
@@ -4372,20 +4366,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H103" s="8"/>
     </row>
@@ -4416,16 +4410,16 @@
         <v>15</v>
       </c>
       <c r="D105" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="F105" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="G105" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="H105" s="8"/>
     </row>
@@ -4440,16 +4434,16 @@
         <v>20</v>
       </c>
       <c r="D106" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="F106" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="G106" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="H106" s="16"/>
     </row>
@@ -4458,22 +4452,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="12" t="s">
+      <c r="E107" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="F107" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="G107" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="H107" s="8"/>
     </row>
@@ -4488,14 +4482,14 @@
         <v>15</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="H108" s="16"/>
     </row>
@@ -4526,14 +4520,14 @@
         <v>20</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="H110" s="16"/>
     </row>
@@ -4626,14 +4620,14 @@
         <v>20</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G115" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="G115" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="H115" s="17"/>
     </row>
@@ -4648,14 +4642,14 @@
         <v>15</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G116" s="20" t="s">
         <v>229</v>
-      </c>
-      <c r="G116" s="20" t="s">
-        <v>230</v>
       </c>
       <c r="H116" s="20"/>
     </row>
@@ -4686,14 +4680,14 @@
         <v>20</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G118" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="G118" s="20" t="s">
-        <v>233</v>
       </c>
       <c r="H118" s="20"/>
     </row>
@@ -4708,16 +4702,16 @@
         <v>15</v>
       </c>
       <c r="D119" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E119" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="F119" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="G119" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="H119" s="17"/>
     </row>
@@ -4732,16 +4726,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E120" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="F120" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="G120" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="G120" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="H120" s="20"/>
     </row>
@@ -4750,22 +4744,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="19" t="s">
+      <c r="E121" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="F121" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="G121" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="H121" s="17"/>
     </row>
@@ -4784,10 +4778,10 @@
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G122" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="H122" s="20"/>
     </row>
@@ -4816,7 +4810,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -4856,14 +4850,14 @@
         <v>15</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G126" s="20" t="s">
         <v>236</v>
-      </c>
-      <c r="G126" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="H126" s="20"/>
     </row>
@@ -4894,14 +4888,14 @@
         <v>20</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G128" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="H128" s="11"/>
     </row>
@@ -4923,7 +4917,7 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C14 B29 B45 B46 B47 B56 B57 B58 B59 B67 B70 B71 B72 B73 B74 B77 B94 B95 B104 B105 B106 B107 B108 B109 B110 B111 B13:B19 B20:B28 B30:B38 B39:B44 B52:B55 B64:B66 B68:B69 B75:B76 B78:B79 B84:B91 B92:B93 B96:B100 B101:B102 B128:B129 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C14 B29 B45 B46 B47 B56 B57 B58 B59 B69 B70 B71 B72 B73 B74 B77 B94 B95 B104 B105 B106 B107 B108 B109 B110 B111 B13:B19 B20:B28 B30:B38 B39:B44 B52:B55 B64:B66 B67:B68 B75:B76 B78:B79 B84:B91 B92:B93 B96:B100 B101:B102 B128:B129 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -4972,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4980,20 +4974,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
         <v>243</v>
-      </c>
-      <c r="C3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5004,20 +4998,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5025,47 +5019,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
         <v>250</v>
-      </c>
-      <c r="C8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
         <v>256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5075,12 +5069,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5090,55 +5084,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5148,152 +5142,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5303,209 +5297,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5515,7 +5509,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="3:3">
@@ -5530,7 +5524,7 @@
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
